--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3246840.999272379</v>
+        <v>3351074.707665825</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12502432.03437992</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8073045.267019445</v>
+        <v>8081958.158271052</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>218.5323865535618</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>255.3537936326225</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -820,19 +822,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>136.9764067979335</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>118.3763980714632</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -953,16 +955,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>323.8490908462661</v>
+        <v>125.0816591241453</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1063,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1072,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>36.70138737407932</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>198.9943012689587</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>184.5747610569529</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1186,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>79.91534106849984</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1294,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>199.3654827743563</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>239.9562917588219</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>155.1980648094038</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>103.5745801383499</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1588,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620684</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>114.5285626279045</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,10 +1779,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>123.9815576456784</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1898,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>59.96838802184498</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>96.36494467178812</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>113.3214422457868</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>91.32784210538787</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>198.1192036677476</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>20.25102067617329</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2722,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>18.50276072357057</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>187.6271126132405</v>
       </c>
     </row>
     <row r="29">
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695479</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2950,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>47.84205650382022</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>12.96996784159864</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3193,7 +3195,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3202,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>31.6639636564717</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>33.828918917875</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>35.66650366117432</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3439,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>28.87857325623989</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>152.3771414330744</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3676,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>134.3852063573446</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>113.7379149844586</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>93.59472601529558</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4037,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717414</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4138,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>33.583987146874</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>247.124702660988</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1243.280836875046</v>
+        <v>1797.459220126684</v>
       </c>
       <c r="C2" t="n">
-        <v>874.3183199346347</v>
+        <v>1797.459220126684</v>
       </c>
       <c r="D2" t="n">
-        <v>874.3183199346347</v>
+        <v>1439.193521519933</v>
       </c>
       <c r="E2" t="n">
-        <v>488.5300673363904</v>
+        <v>1053.405268921689</v>
       </c>
       <c r="F2" t="n">
-        <v>77.54416254678287</v>
+        <v>642.4193641320817</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218342</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796417</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="X2" t="n">
-        <v>2020.02000891498</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="Y2" t="n">
-        <v>1629.880676939168</v>
+        <v>2184.059060190806</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1659.793729425661</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2365.954209262793</v>
+        <v>675.2683391907248</v>
       </c>
       <c r="C4" t="n">
-        <v>2197.018026334886</v>
+        <v>506.3321562628179</v>
       </c>
       <c r="D4" t="n">
-        <v>2046.90138692255</v>
+        <v>506.3321562628179</v>
       </c>
       <c r="E4" t="n">
-        <v>1898.988293340157</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="F4" t="n">
-        <v>1752.098345842247</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G4" t="n">
-        <v>1584.395509216966</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.823389952861</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.605821609171</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>3103.839206178697</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U4" t="n">
-        <v>2814.73633930434</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="V4" t="n">
-        <v>2814.73633930434</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="W4" t="n">
-        <v>2814.73633930434</v>
+        <v>1124.050469232272</v>
       </c>
       <c r="X4" t="n">
-        <v>2586.746788406323</v>
+        <v>896.0609183342549</v>
       </c>
       <c r="Y4" t="n">
-        <v>2365.954209262793</v>
+        <v>675.2683391907248</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1689.318139675982</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.35562273557</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524211</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2403.038273524211</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>2075.917979740103</v>
+        <v>1572.164517693149</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>847.3980557622424</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>678.4618728343355</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1608.706098214181</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1319.603231339825</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V7" t="n">
-        <v>1319.603231339825</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W7" t="n">
-        <v>1319.603231339825</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="X7" t="n">
-        <v>1091.613680441807</v>
+        <v>1249.839099736012</v>
       </c>
       <c r="Y7" t="n">
-        <v>1091.613680441807</v>
+        <v>1029.046520592482</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.11348746897</v>
+        <v>2120.647175555803</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450755</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="X8" t="n">
-        <v>1991.252819444782</v>
+        <v>2510.786507531614</v>
       </c>
       <c r="Y8" t="n">
-        <v>1601.11348746897</v>
+        <v>2120.647175555803</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,46 +4889,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.4482993600903</v>
+        <v>482.8906159540807</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218343</v>
+        <v>313.9544330261738</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1444.398931143195</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1155.296064268838</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1155.296064268838</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W10" t="n">
-        <v>865.8788942318776</v>
+        <v>892.5286316823377</v>
       </c>
       <c r="X10" t="n">
-        <v>637.8893433338602</v>
+        <v>664.5390807843204</v>
       </c>
       <c r="Y10" t="n">
-        <v>417.0967641903301</v>
+        <v>664.5390807843204</v>
       </c>
     </row>
     <row r="11">
@@ -5027,52 +5029,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756267</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913855</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417938</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972545</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211832</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2515.675093211832</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703119</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282754</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458823</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797191</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797191</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2342.342295561725</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2122.740830584667</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1833.665603928865</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797191</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>982.1492342949674</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>813.2130513670605</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,31 +5533,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,19 +5588,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M18" t="n">
         <v>1186.520756890282</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703109</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C19" t="n">
-        <v>634.927936255316</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>653.1541313646966</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>505.2410377823035</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>358.3510902843931</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>191.154990999273</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="20">
@@ -5738,31 +5740,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1965.532750177311</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
-        <v>2517.442480416598</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2517.442480416598</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.6374272687975</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C22" t="n">
-        <v>631.7012443408906</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2082.596442208995</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1793.521215553193</v>
+        <v>1885.210734949511</v>
       </c>
       <c r="V22" t="n">
-        <v>1538.836727347306</v>
+        <v>1630.526246743624</v>
       </c>
       <c r="W22" t="n">
-        <v>1249.419557310345</v>
+        <v>1341.109076706663</v>
       </c>
       <c r="X22" t="n">
-        <v>1021.430006412328</v>
+        <v>1113.119525808646</v>
       </c>
       <c r="Y22" t="n">
-        <v>800.6374272687975</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="23">
@@ -5975,19 +5977,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5999,37 +6001,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>788.0191461778176</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1996.942137742368</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1707.866911086565</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1707.866911086565</v>
+        <v>1667.930277414127</v>
       </c>
       <c r="W25" t="n">
-        <v>1418.449741049605</v>
+        <v>1378.513107377167</v>
       </c>
       <c r="X25" t="n">
-        <v>1190.460190151587</v>
+        <v>1150.523556479149</v>
       </c>
       <c r="Y25" t="n">
-        <v>969.6676110080573</v>
+        <v>929.7309773356194</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,25 +6305,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.291933891999</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.2707707770319</v>
+        <v>2971.84874707406</v>
       </c>
       <c r="C28" t="n">
-        <v>634.334587849125</v>
+        <v>2802.912564146153</v>
       </c>
       <c r="D28" t="n">
-        <v>484.2179484367892</v>
+        <v>2652.795924733818</v>
       </c>
       <c r="E28" t="n">
-        <v>336.3048548543961</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>3860.426268812248</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648819</v>
+        <v>3571.009098775287</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750802</v>
+        <v>3343.01954787727</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.9192356072716</v>
+        <v>3153.4972119043</v>
       </c>
     </row>
     <row r="29">
@@ -6446,25 +6448,25 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,25 +6475,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6552,13 +6554,13 @@
         <v>738.7889117913853</v>
       </c>
       <c r="N30" t="n">
-        <v>1366.386875345992</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O30" t="n">
-        <v>1918.296605585279</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2341.919755080347</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1029.681434529216</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>860.7452516013095</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D31" t="n">
-        <v>710.6286121889738</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E31" t="n">
-        <v>562.7155186065806</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8255711086703</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G31" t="n">
-        <v>248.6294718235502</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>106.9176406657483</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1211.329899359456</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6692,55 +6694,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397182</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.21291626627</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>2945.34133286226</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>2776.405149934353</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>2626.288510522018</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>2626.288510522018</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>2479.398563024107</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>2479.398563024107</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>4408.948812632697</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>4119.873585976895</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>3865.189097771008</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>3575.771927734047</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>3347.78237683603</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>3126.9897976925</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L36" t="n">
-        <v>590.9096564684977</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.28814409505</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2529.355041543136</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3228.447361044446</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C37" t="n">
-        <v>3059.511178116539</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741615</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159222</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661312</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376192</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305899</v>
+        <v>2350.747103816259</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.33114932884</v>
+        <v>2131.145638839201</v>
       </c>
       <c r="U37" t="n">
-        <v>4221.33114932884</v>
+        <v>1842.070412183399</v>
       </c>
       <c r="V37" t="n">
-        <v>3966.646661122953</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="W37" t="n">
-        <v>3677.229491085993</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X37" t="n">
-        <v>3449.239940187976</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y37" t="n">
-        <v>3228.447361044446</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="38">
@@ -7166,37 +7168,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>244.2098454714574</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3012.408157764291</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C40" t="n">
-        <v>2858.491853286439</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D40" t="n">
-        <v>2708.375213874103</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E40" t="n">
-        <v>2708.375213874103</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="F40" t="n">
-        <v>2561.485266376193</v>
+        <v>229.5592957321584</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>229.5592957321584</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>3932.255922673039</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>3642.838752636078</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>3414.849201738061</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>3194.056622594531</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7391,55 +7393,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349512</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
         <v>2319.799627685893</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3228.447361044448</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C43" t="n">
-        <v>3059.511178116541</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="D43" t="n">
-        <v>2909.394538704206</v>
+        <v>584.529540471266</v>
       </c>
       <c r="E43" t="n">
-        <v>2761.481445121813</v>
+        <v>584.529540471266</v>
       </c>
       <c r="F43" t="n">
-        <v>2646.594662309228</v>
+        <v>437.6395929733557</v>
       </c>
       <c r="G43" t="n">
-        <v>2479.398563024108</v>
+        <v>270.4434936882356</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866306</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822169</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998109</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729144</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389152</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098137</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671696</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650997</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.932614305902</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328843</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>4221.331149328843</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>3966.646661122956</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>3677.229491085996</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>3449.239940187978</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>3228.447361044448</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,61 +7636,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111739</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075831</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3200.825397924059</v>
+        <v>3079.453861511889</v>
       </c>
       <c r="C46" t="n">
-        <v>3031.889214996152</v>
+        <v>2910.517678583983</v>
       </c>
       <c r="D46" t="n">
-        <v>2881.772575583816</v>
+        <v>2876.594459243706</v>
       </c>
       <c r="E46" t="n">
-        <v>2733.859482001423</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="F46" t="n">
-        <v>2586.969534503512</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G46" t="n">
-        <v>2419.773435218392</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218392</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866306</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.92275029663</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822169</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998109</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729144</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.430181389152</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098137</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671696</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650997</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S46" t="n">
-        <v>4623.787448650997</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T46" t="n">
-        <v>4404.185983673939</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U46" t="n">
-        <v>4154.565071895163</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V46" t="n">
-        <v>3899.880583689276</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="W46" t="n">
-        <v>3610.463413652315</v>
+        <v>3709.884456383676</v>
       </c>
       <c r="X46" t="n">
-        <v>3382.473862754298</v>
+        <v>3481.894905485659</v>
       </c>
       <c r="Y46" t="n">
-        <v>3382.473862754298</v>
+        <v>3261.102326342129</v>
       </c>
     </row>
   </sheetData>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,7 +8069,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>54.95314511566608</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8942,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>12.04875628922406</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>77.45170586329473</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>34.08691039030785</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>16.31315520054551</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>107.2784330767828</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>43.92976817443574</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24178,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>104.0840080815015</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>194.8566322838563</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24415,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28624665954067</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>231.8866226476547</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>126.9182872993607</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>30.95754073885425</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>100.7734165143921</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>68.29586847696689</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>185.7414866708166</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>191.8807364711622</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>112.948969357038</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25360,19 +25362,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>152.1477127454047</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>14.86967966555346</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>5.909506488879231</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>31.68313303847266</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>46.69998683092828</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>115.0314858713384</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>39.05977172825618</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>707034.6638598258</v>
+        <v>715947.555111432</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>695223.7692116902</v>
+        <v>695223.7692116901</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>695223.7692116902</v>
+        <v>695223.7692116901</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>695223.7692116901</v>
+        <v>695223.7692116902</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>695223.7692116902</v>
+        <v>695223.7692116901</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>695223.7692116902</v>
+        <v>695223.7692116901</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>695223.7692116901</v>
+        <v>695223.7692116902</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778555</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="C2" t="n">
+        <v>738937.5928778554</v>
+      </c>
+      <c r="D2" t="n">
         <v>738937.5928778552</v>
       </c>
-      <c r="D2" t="n">
-        <v>738937.5928778553</v>
-      </c>
       <c r="E2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.939721005</v>
       </c>
       <c r="F2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="G2" t="n">
         <v>726431.9397210056</v>
       </c>
-      <c r="G2" t="n">
-        <v>726431.9397210055</v>
-      </c>
       <c r="H2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="J2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="K2" t="n">
         <v>726431.9397210054</v>
@@ -26344,13 +26346,13 @@
         <v>726431.9397210055</v>
       </c>
       <c r="M2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="N2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="O2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210057</v>
       </c>
       <c r="P2" t="n">
         <v>726431.9397210054</v>
@@ -26363,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>203438.7416121058</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>49110.09270605439</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>137930.4104072219</v>
+      </c>
+      <c r="C4" t="n">
+        <v>89134.17909312023</v>
+      </c>
+      <c r="D4" t="n">
         <v>89134.17909312021</v>
       </c>
-      <c r="C4" t="n">
-        <v>89134.17909312015</v>
-      </c>
-      <c r="D4" t="n">
-        <v>89134.17909312012</v>
-      </c>
       <c r="E4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768921</v>
+        <v>9947.144321768865</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768899</v>
@@ -26436,25 +26438,25 @@
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768921</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768959</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
+        <v>9947.144321768857</v>
+      </c>
+      <c r="O4" t="n">
         <v>9947.144321768897</v>
-      </c>
-      <c r="O4" t="n">
-        <v>9947.144321768968</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768897</v>
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26476,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-786875.2725042503</v>
+        <v>-606682.3735451318</v>
       </c>
       <c r="C6" t="n">
-        <v>541869.4732233417</v>
+        <v>338430.7316112362</v>
       </c>
       <c r="D6" t="n">
-        <v>541869.4732233419</v>
+        <v>541869.4732233416</v>
       </c>
       <c r="E6" t="n">
-        <v>289949.803767974</v>
+        <v>289949.8037679738</v>
       </c>
       <c r="F6" t="n">
-        <v>615362.2655753299</v>
+        <v>615362.2655753291</v>
       </c>
       <c r="G6" t="n">
-        <v>615362.2655753297</v>
+        <v>615362.2655753295</v>
       </c>
       <c r="H6" t="n">
-        <v>615362.2655753295</v>
+        <v>615362.2655753294</v>
       </c>
       <c r="I6" t="n">
-        <v>615362.2655753297</v>
+        <v>615362.2655753293</v>
       </c>
       <c r="J6" t="n">
-        <v>397831.063178052</v>
+        <v>447757.0877653468</v>
       </c>
       <c r="K6" t="n">
-        <v>615362.2655753294</v>
+        <v>566252.1728692751</v>
       </c>
       <c r="L6" t="n">
         <v>615362.2655753295</v>
       </c>
       <c r="M6" t="n">
-        <v>530307.2376398174</v>
+        <v>530307.2376398176</v>
       </c>
       <c r="N6" t="n">
-        <v>615362.2655753294</v>
+        <v>615362.2655753291</v>
       </c>
       <c r="O6" t="n">
-        <v>615362.2655753297</v>
+        <v>615362.2655753293</v>
       </c>
       <c r="P6" t="n">
-        <v>615362.2655753293</v>
+        <v>615362.2655753295</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="G4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26817,19 +26819,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="O4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="O4" t="n">
-        <v>1172.708288099649</v>
-      </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27379,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>193.0153162193922</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>114.3773070458465</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>9.45755584863565</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>26.3786168428576</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27673,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>62.38884780978753</v>
+        <v>261.1562795319084</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>182.8475619020899</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>26.71535412007844</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27855,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>180.6981307140547</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>289.8157596099692</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,7 +28064,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>20.18346650181286</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>46.56670657776908</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -30271,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>140.7358547888799</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>488.7223436347931</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>291.8940795642898</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32318,16 +32320,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>322.8964653704906</v>
@@ -32339,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32470,34 +32472,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>279.0775374915851</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>175.960367665998</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>616.375287159485</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>316.2462973459351</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32944,34 +32946,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>547.6926421044561</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954392</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33266,34 +33268,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>742.9354859824765</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>353.2560498238277</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>150.2061940096332</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33740,34 +33742,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>716.7980286000566</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>169.6252075171348</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>289.7537444526272</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>202.2352659288684</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>570.6116741576914</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>316.0872899694776</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34366,7 +34368,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663306</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34451,7 +34453,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>471.1883883160951</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>446.15024470854</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.7540807028583389</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462711</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>350.1679638549189</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>188.9220579561604</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>136.4812930471406</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.9785935799765</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>473.7790427150405</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>176.2645232599136</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>405.5586081824378</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121058</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,22 +36916,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>611.5937738991432</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>213.2742757378062</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>18.86448192629984</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>585.4563165167233</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>23.94570355317081</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>151.9123054782682</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>68.26085851453816</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683835</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>432.0572943778172</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>173.4910455250332</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38014,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396443</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38099,7 +38101,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>328.5921438716507</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3351074.707665825</v>
+        <v>3347020.581906444</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,19 +661,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>218.5323865535618</v>
+        <v>281.9350719119374</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -822,22 +822,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>136.9764067979335</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.89148327532443</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,13 +907,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>129.967780924639</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,10 +949,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>125.0816591241453</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X7" t="n">
-        <v>198.9943012689587</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>184.5747610569529</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>108.9812949757285</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1299,16 +1299,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>63.10873435712737</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>239.9562917588219</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>103.5745801383499</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>71.79687029691078</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>95.12712756824217</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>123.9815576456784</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2016,10 +2016,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>96.36494467178812</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624886</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>91.32784210538787</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>20.25102067617329</v>
+        <v>182.4326803923963</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>187.6271126132405</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>47.84205650382022</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>31.6639636564717</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>28.87857325623989</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>233.4934804519046</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>134.3852063573446</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>206.20207519321</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>93.59472601529558</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>172.3645574474254</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>33.583987146874</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1797.459220126684</v>
+        <v>1844.676600992463</v>
       </c>
       <c r="C2" t="n">
-        <v>1797.459220126684</v>
+        <v>1475.714084052051</v>
       </c>
       <c r="D2" t="n">
-        <v>1439.193521519933</v>
+        <v>1117.448385445301</v>
       </c>
       <c r="E2" t="n">
-        <v>1053.405268921689</v>
+        <v>1117.448385445301</v>
       </c>
       <c r="F2" t="n">
-        <v>642.4193641320817</v>
+        <v>706.4624806556933</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345445</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4351,31 +4351,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190806</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2184.059060190806</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W2" t="n">
-        <v>2184.059060190806</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="X2" t="n">
-        <v>2184.059060190806</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="Y2" t="n">
-        <v>2184.059060190806</v>
+        <v>2231.276441056585</v>
       </c>
     </row>
     <row r="3">
@@ -4385,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>458.7060632252739</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049859</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.793729425661</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>675.2683391907248</v>
+        <v>932.979501827063</v>
       </c>
       <c r="C4" t="n">
-        <v>506.3321562628179</v>
+        <v>764.0433188991561</v>
       </c>
       <c r="D4" t="n">
-        <v>506.3321562628179</v>
+        <v>613.9266794868204</v>
       </c>
       <c r="E4" t="n">
-        <v>367.9721493962184</v>
+        <v>466.0135859044273</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962184</v>
+        <v>319.1236384065169</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>151.1371737147955</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800312</v>
+        <v>151.1371737147955</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
@@ -4518,22 +4518,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269233</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1413.467639269233</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1413.467639269233</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>1124.050469232272</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="X4" t="n">
-        <v>896.0609183342549</v>
+        <v>1153.772080970593</v>
       </c>
       <c r="Y4" t="n">
-        <v>675.2683391907248</v>
+        <v>932.979501827063</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1572.164517693149</v>
+        <v>1767.878520285689</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>1398.916003345278</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>1040.650304738527</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>654.8620521402829</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4576,43 +4576,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y5" t="n">
-        <v>1572.164517693149</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
@@ -4667,7 +4667,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125857</v>
@@ -4676,16 +4676,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>847.3980557622424</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>678.4618728343355</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>528.3452334219998</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396066</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4755,22 +4755,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1450.843444452132</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>1450.843444452132</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X7" t="n">
-        <v>1249.839099736012</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.046520592482</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2120.647175555803</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792694</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2884.252265792694</v>
+        <v>3105.233036999167</v>
       </c>
       <c r="X8" t="n">
-        <v>2510.786507531614</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="Y8" t="n">
-        <v>2120.647175555803</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4874,16 +4874,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>482.8906159540807</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C10" t="n">
-        <v>313.9544330261738</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D10" t="n">
-        <v>163.837793613838</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E10" t="n">
-        <v>163.837793613838</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>163.837793613838</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>892.5286316823377</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X10" t="n">
-        <v>664.5390807843204</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y10" t="n">
-        <v>664.5390807843204</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="11">
@@ -5023,58 +5023,58 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168624</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.5505208511906</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232838</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2342.342295561725</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2122.740830584667</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U13" t="n">
-        <v>1833.665603928865</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V13" t="n">
-        <v>1578.981115722978</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W13" t="n">
-        <v>1578.981115722978</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X13" t="n">
-        <v>1350.99156482496</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y13" t="n">
-        <v>1130.19898568143</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,19 +5290,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5311,19 +5311,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400717</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400717</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>365.9405071576786</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>219.0505596597682</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>219.0505596597682</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,28 +5512,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5548,16 +5548,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.2707707770323</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>803.2707707770323</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>653.1541313646966</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>505.2410377823035</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>358.3510902843931</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>191.154990999273</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797189</v>
@@ -5682,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5691,34 +5691,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.70136564882</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072721</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5740,31 +5740,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1885.210734949511</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1630.526246743624</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1341.109076706663</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1113.119525808646</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5983,43 +5983,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1366.386875345992</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>929.7309773356194</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>1667.930277414127</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W25" t="n">
-        <v>1378.513107377167</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X25" t="n">
-        <v>1150.523556479149</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y25" t="n">
-        <v>929.7309773356194</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="26">
@@ -6214,25 +6214,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2971.84874707406</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>2802.912564146153</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>2652.795924733818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>2504.882831151424</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>2504.882831151424</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866304</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3571.009098775287</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3343.01954787727</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3153.4972119043</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6691,22 +6691,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
         <v>2206.55866301478</v>
@@ -6715,22 +6715,22 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2945.34133286226</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>2776.405149934353</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>2626.288510522018</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>2626.288510522018</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>2479.398563024107</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024107</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4408.948812632697</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4119.873585976895</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3865.189097771008</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>3575.771927734047</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>3347.78237683603</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>3126.9897976925</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273905</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2529.355041543136</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>956.9553291057244</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C37" t="n">
-        <v>788.0191461778176</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2350.747103816259</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2131.145638839201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1842.070412183399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1587.385923977512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1587.385923977512</v>
+        <v>1264.895068939947</v>
       </c>
       <c r="X37" t="n">
-        <v>1359.396373079494</v>
+        <v>1036.90551804193</v>
       </c>
       <c r="Y37" t="n">
-        <v>1138.603793935964</v>
+        <v>816.1129388984</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7192,13 +7192,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.311647517213</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2252.2213777565</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>695.5020655703114</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="C40" t="n">
-        <v>526.5658826424045</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D40" t="n">
-        <v>376.4492432300688</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E40" t="n">
-        <v>376.4492432300688</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F40" t="n">
-        <v>229.5592957321584</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
-        <v>229.5592957321584</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>935.9992711742725</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>715.2066920307424</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>671.2000270096656</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>734.6461798836018</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>734.6461798836018</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>584.529540471266</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>584.529540471266</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>437.6395929733557</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>270.4434936882356</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>916.2946447138415</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3079.453861511889</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>2910.517678583983</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>2876.594459243706</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3999.301626420637</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3709.884456383676</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3481.894905485659</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>3261.102326342129</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8060,16 +8060,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>162.0073097921339</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>54.95314511566608</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8944,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>77.45170586329473</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>145.6085800303775</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>72.11969353038566</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>16.31315520054551</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>43.92976817443574</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>125.5054897610394</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>194.8566322838563</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>231.8866226476547</v>
+        <v>69.70496293143168</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>30.95754073885425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>100.7734165143921</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>185.7414866708166</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>152.1477127454047</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>53.02951788468636</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>5.909506488879231</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>19.5075801958271</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>46.69998683092828</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>115.0314858713384</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>695223.7692116901</v>
+        <v>695223.7692116902</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>695223.7692116902</v>
+        <v>695223.7692116901</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778554</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210049</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="H2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="I2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="M2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="N2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
         <v>726431.9397210054</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210053</v>
       </c>
       <c r="P2" t="n">
         <v>726431.9397210054</v>
@@ -26368,19 +26368,19 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121058</v>
+        <v>203438.7416121059</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605439</v>
+        <v>49110.09270605448</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,19 +26420,19 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312023</v>
+        <v>89134.17909312017</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312021</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="E4" t="n">
+        <v>9947.144321768899</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9947.144321768857</v>
+      </c>
+      <c r="G4" t="n">
         <v>9947.144321768897</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9947.144321768865</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9947.144321768899</v>
       </c>
       <c r="H4" t="n">
         <v>9947.144321768897</v>
@@ -26453,7 +26453,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768857</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
         <v>9947.144321768897</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-606682.3735451318</v>
+        <v>-606682.3735451316</v>
       </c>
       <c r="C6" t="n">
-        <v>338430.7316112362</v>
+        <v>338430.731611236</v>
       </c>
       <c r="D6" t="n">
-        <v>541869.4732233416</v>
+        <v>541869.4732233419</v>
       </c>
       <c r="E6" t="n">
-        <v>289949.8037679738</v>
+        <v>289602.4245136168</v>
       </c>
       <c r="F6" t="n">
-        <v>615362.2655753291</v>
+        <v>615014.8863209719</v>
       </c>
       <c r="G6" t="n">
-        <v>615362.2655753295</v>
+        <v>615014.8863209722</v>
       </c>
       <c r="H6" t="n">
-        <v>615362.2655753294</v>
+        <v>615014.8863209728</v>
       </c>
       <c r="I6" t="n">
-        <v>615362.2655753293</v>
+        <v>615014.8863209726</v>
       </c>
       <c r="J6" t="n">
-        <v>447757.0877653468</v>
+        <v>447409.7085109896</v>
       </c>
       <c r="K6" t="n">
-        <v>566252.1728692751</v>
+        <v>565904.7936149178</v>
       </c>
       <c r="L6" t="n">
-        <v>615362.2655753295</v>
+        <v>615014.8863209723</v>
       </c>
       <c r="M6" t="n">
-        <v>530307.2376398176</v>
+        <v>529959.8583854605</v>
       </c>
       <c r="N6" t="n">
-        <v>615362.2655753291</v>
+        <v>615014.8863209725</v>
       </c>
       <c r="O6" t="n">
-        <v>615362.2655753293</v>
+        <v>615014.8863209725</v>
       </c>
       <c r="P6" t="n">
-        <v>615362.2655753295</v>
+        <v>615014.8863209725</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
@@ -26810,7 +26810,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26819,13 +26819,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>193.0153162193922</v>
+        <v>129.6126308610166</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27542,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9.45755584863565</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>5.905111928576147</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,16 +27590,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>276.9082648170724</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>261.1562795319084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,19 +27827,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X7" t="n">
-        <v>26.71535412007844</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>180.6981307140547</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>240.2596737416845</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28019,16 +28019,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>83.3252282894418</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>46.56670657776908</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>344.2757660550399</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32077,13 +32077,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>488.7223436347931</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,28 +32311,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,7 +32341,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32472,34 +32472,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>279.0775374915851</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>316.2462973459351</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32946,34 +32946,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>616.9033572954392</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>742.9354859824765</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>169.6252075171348</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>202.2352659288684</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>570.6116741576914</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34389,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34780,16 +34780,16 @@
         <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>348.5948060356187</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>446.15024470854</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
@@ -34798,10 +34798,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>212.9340539717066</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35664,7 +35664,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924729</v>
@@ -35725,13 +35725,13 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>350.1679638549189</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36053,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>136.4812930471406</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>176.2645232599136</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>485.5616452121058</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>611.5937738991432</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>23.94570355317081</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>68.26085851453816</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>432.0572943778172</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38037,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3347020.581906444</v>
+        <v>3348781.11220923</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>281.9350719119374</v>
+        <v>51.80772570888754</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>41.28371368070833</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.89148327532443</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>129.967780924639</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>17.35112070699443</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1071,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>61.42978662487899</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>218.0944584378661</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.9812949757285</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>63.10873435712737</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,10 +1308,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>52.07852635745805</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>80.08971311158706</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>71.79687029691078</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>95.12712756824217</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2016,7 +2016,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>91.89996056624886</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>142.1343012721633</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>182.4326803923963</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>113.6427030833203</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>233.4934804519046</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3663,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>206.20207519321</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>172.3645574474254</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1844.676600992463</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="C2" t="n">
-        <v>1475.714084052051</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="D2" t="n">
-        <v>1117.448385445301</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="E2" t="n">
-        <v>1117.448385445301</v>
+        <v>884.9965205937353</v>
       </c>
       <c r="F2" t="n">
-        <v>706.4624806556933</v>
+        <v>474.0106158041278</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056585</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2231.276441056585</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>2231.276441056585</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="Y2" t="n">
-        <v>2231.276441056585</v>
+        <v>1270.78477319198</v>
       </c>
     </row>
     <row r="3">
@@ -4403,7 +4403,7 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4412,25 +4412,25 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>458.7060632252739</v>
+        <v>507.2413987429759</v>
       </c>
       <c r="L3" t="n">
-        <v>1092.885047004312</v>
+        <v>801.9449557744476</v>
       </c>
       <c r="M3" t="n">
-        <v>1456.147065963532</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560478</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>932.979501827063</v>
+        <v>706.8033708781536</v>
       </c>
       <c r="C4" t="n">
-        <v>764.0433188991561</v>
+        <v>537.8671879502467</v>
       </c>
       <c r="D4" t="n">
-        <v>613.9266794868204</v>
+        <v>387.750548537911</v>
       </c>
       <c r="E4" t="n">
-        <v>466.0135859044273</v>
+        <v>239.8374549555178</v>
       </c>
       <c r="F4" t="n">
-        <v>319.1236384065169</v>
+        <v>92.94750745760749</v>
       </c>
       <c r="G4" t="n">
-        <v>151.1371737147955</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>151.1371737147955</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="W4" t="n">
-        <v>1381.76163186861</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="X4" t="n">
-        <v>1153.772080970593</v>
+        <v>1109.244414851923</v>
       </c>
       <c r="Y4" t="n">
-        <v>932.979501827063</v>
+        <v>888.4518357083933</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1767.878520285689</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1398.916003345278</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1040.650304738527</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>654.8620521402829</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
         <v>523.5814653477182</v>
@@ -4564,10 +4564,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4576,7 +4576,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4591,28 +4591,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522581</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261501</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285689</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4622,70 +4622,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4764,13 +4764,13 @@
         <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>1722.044275313594</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1792.126722677732</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1423.164205737321</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1423.164205737321</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1037.375953139076</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>626.3900483494688</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W8" t="n">
-        <v>3105.233036999167</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X8" t="n">
-        <v>2731.767278738087</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1792.126722677732</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,49 +4886,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1007.446783179745</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>838.5106002518381</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>688.3939608395024</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>286.8195251357049</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>119.1166885104239</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4998,16 +4998,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1637.877378051532</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1409.887827153515</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>1189.095248009985</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5020,31 +5020,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168624</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,37 +5053,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5132,7 +5132,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>727.9786782557277</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C13" t="n">
-        <v>559.0424953278208</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>909.6271430859674</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,16 +5293,16 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5509,46 +5509,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282754</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458823</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235166</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5746,10 +5746,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5758,16 +5758,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,22 +5980,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1723.711884091971</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.29471405501</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134626</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6244,34 +6244,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,10 +6451,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6466,7 +6466,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6894,16 +6894,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6925,7 +6925,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>634.4644740681603</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1264.895068939947</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1036.90551804193</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>816.1129388984</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>533.5582272005026</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>533.5582272005026</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>383.4415877881669</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>935.9992711742725</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>715.2066920307424</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -8060,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>162.0073097921339</v>
+        <v>211.0329012241562</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>68.5257599066253</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>145.6085800303775</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>72.11969353038566</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>125.5054897610394</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>110.0033420516647</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>116.6691671648112</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>69.70496293143168</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>53.02951788468636</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>19.5075801958271</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>695223.7692116902</v>
+        <v>695223.7692116901</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>695223.7692116902</v>
+        <v>695223.7692116901</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>738937.5928778546</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778554</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="E2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210049</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="H2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="K2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="I2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>726431.9397210052</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210053</v>
       </c>
       <c r="M2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210056</v>
       </c>
     </row>
     <row r="3">
@@ -26368,28 +26368,28 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121059</v>
+        <v>203438.7416121058</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099823</v>
       </c>
       <c r="K3" t="n">
         <v>49110.09270605448</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312017</v>
+        <v>89134.17909312021</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.1790931202</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768857</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
@@ -26441,13 +26441,13 @@
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768952</v>
       </c>
       <c r="K4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768963</v>
       </c>
       <c r="M4" t="n">
         <v>9947.144321768897</v>
@@ -26524,46 +26524,46 @@
         <v>-606682.3735451316</v>
       </c>
       <c r="C6" t="n">
-        <v>338430.731611236</v>
+        <v>338430.7316112362</v>
       </c>
       <c r="D6" t="n">
-        <v>541869.4732233419</v>
+        <v>541869.4732233417</v>
       </c>
       <c r="E6" t="n">
-        <v>289602.4245136168</v>
+        <v>289915.0658425383</v>
       </c>
       <c r="F6" t="n">
-        <v>615014.8863209719</v>
+        <v>615327.5276498937</v>
       </c>
       <c r="G6" t="n">
-        <v>615014.8863209722</v>
+        <v>615327.5276498938</v>
       </c>
       <c r="H6" t="n">
-        <v>615014.8863209728</v>
+        <v>615327.5276498937</v>
       </c>
       <c r="I6" t="n">
-        <v>615014.8863209726</v>
+        <v>615327.5276498934</v>
       </c>
       <c r="J6" t="n">
-        <v>447409.7085109896</v>
+        <v>447722.3498399112</v>
       </c>
       <c r="K6" t="n">
-        <v>565904.7936149178</v>
+        <v>566217.4349438393</v>
       </c>
       <c r="L6" t="n">
-        <v>615014.8863209723</v>
+        <v>615327.5276498934</v>
       </c>
       <c r="M6" t="n">
-        <v>529959.8583854605</v>
+        <v>530272.4997143816</v>
       </c>
       <c r="N6" t="n">
-        <v>615014.8863209725</v>
+        <v>615327.5276498937</v>
       </c>
       <c r="O6" t="n">
-        <v>615014.8863209725</v>
+        <v>615327.5276498935</v>
       </c>
       <c r="P6" t="n">
-        <v>615014.8863209725</v>
+        <v>615327.527649894</v>
       </c>
     </row>
   </sheetData>
@@ -26792,19 +26792,19 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27014,7 +27014,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>190.8166233022539</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,7 +27260,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>129.6126308610166</v>
+        <v>359.7399770640665</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>125.0228863640959</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>5.905111928576147</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27596,7 +27596,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>276.9082648170724</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27672,13 +27672,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>233.6440512519075</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>83.3252282894418</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>192.8272672155874</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>240.2596737416845</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>83.3252282894418</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>92.67648855686274</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28070,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33186,7 +33186,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34780,10 +34780,10 @@
         <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>348.5948060356187</v>
+        <v>397.620397467641</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820405</v>
@@ -34795,13 +34795,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36834,7 +36834,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36852,7 +36852,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
